--- a/Edureka_Search.xlsx
+++ b/Edureka_Search.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aedunu\OneDrive - Capgemini\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/aedunuri-manasa_aedunuri-manasa_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683DCAAA-BA94-4EB2-9155-F96DFA7B56C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{683DCAAA-BA94-4EB2-9155-F96DFA7B56C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32296D39-1B5E-4115-BB21-A203D6D61315}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B656ADEA-66E8-4A2D-B586-F6E6E5305E14}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="200">
   <si>
     <t>Issue Type</t>
   </si>
@@ -296,15 +296,6 @@
     <t>Functional Testing</t>
   </si>
   <si>
-    <t>TS_Edureka_SearchCouses_01</t>
-  </si>
-  <si>
-    <t>REQ_Edureka_SearchCourses_01</t>
-  </si>
-  <si>
-    <t>REQ_Edureka_SearchCourses_02</t>
-  </si>
-  <si>
     <t>Verify Search Functionality</t>
   </si>
   <si>
@@ -329,24 +320,12 @@
     <t>I want to click on download curriculm, so that I can downlaod the curreculum of the course</t>
   </si>
   <si>
-    <t>REQ_Edureka_SearchCourses_03</t>
-  </si>
-  <si>
     <t>Verify Popular Search Functionality</t>
   </si>
   <si>
     <t>Verify Download Form Functionality</t>
   </si>
   <si>
-    <t>TC_Edureka_SearchCouses_01</t>
-  </si>
-  <si>
-    <t>TS_Edureka_SearchCourses_02</t>
-  </si>
-  <si>
-    <t>TS_Edureka_SearchCouses_03</t>
-  </si>
-  <si>
     <t xml:space="preserve"> To validate the Search Course search bar</t>
   </si>
   <si>
@@ -362,9 +341,6 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>TC_Edureka_SearchCouses_02</t>
-  </si>
-  <si>
     <t>To validate searching courses with valid keywords.</t>
   </si>
   <si>
@@ -377,9 +353,6 @@
     <t>It is displaying all the courses of Big Data</t>
   </si>
   <si>
-    <t>TC_Edureka_SearchCouses_03</t>
-  </si>
-  <si>
     <t>To validate searching courses with partial keywords.</t>
   </si>
   <si>
@@ -401,9 +374,6 @@
     <t>To validate searching courses with invalid keywords.</t>
   </si>
   <si>
-    <t>TC_Edureka_SearchCouses_04</t>
-  </si>
-  <si>
     <t>Enter invalid course name</t>
   </si>
   <si>
@@ -416,21 +386,12 @@
     <t>It is displaying error message</t>
   </si>
   <si>
-    <t>TC_Edureka_SearchCouses_05</t>
-  </si>
-  <si>
     <t>To validate the aws link.</t>
   </si>
   <si>
     <t>Click on "aws" link</t>
   </si>
   <si>
-    <t>TC_Edureka_SearchCouses_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It should navigate to all the courses availale page of "aws" </t>
-  </si>
-  <si>
     <t>It is navigated to the aws courses page</t>
   </si>
   <si>
@@ -467,12 +428,6 @@
     <t>It should display "Cloud Admin"</t>
   </si>
   <si>
-    <t>TC_Edureka_SearchCouses_07</t>
-  </si>
-  <si>
-    <t>TC_Edureka_SearchCouses_08</t>
-  </si>
-  <si>
     <t>To validate searching with invalid filters.</t>
   </si>
   <si>
@@ -491,21 +446,9 @@
     <t>To validate selecting the filters.</t>
   </si>
   <si>
-    <t>TC_Edureka_SearchCouses_09</t>
-  </si>
-  <si>
     <t>Click on "AWS Architect"</t>
   </si>
   <si>
-    <t>"AWS Architect" is displayed</t>
-  </si>
-  <si>
-    <t>"AWS Architect" should be displayed</t>
-  </si>
-  <si>
-    <t>TC_Edureka_SearchCouses_010</t>
-  </si>
-  <si>
     <t>To validate the AWS Masters Program course.</t>
   </si>
   <si>
@@ -516,9 +459,6 @@
   </si>
   <si>
     <t>It is navigating to the details page</t>
-  </si>
-  <si>
-    <t>TC_Edureka_SearchCouses_011</t>
   </si>
   <si>
     <t>To validate Download Curriculum button.</t>
@@ -532,9 +472,6 @@
   <si>
     <t>1. Scroll up to see AWS Masters Course Syllabus.
 2. Click ok Download Curriculum button</t>
-  </si>
-  <si>
-    <t>TC_Edureka_SearchCouses_012</t>
   </si>
   <si>
     <t>1. To validate the aws link.
@@ -546,9 +483,6 @@
 7. To validate Download Curriculum button.</t>
   </si>
   <si>
-    <t>TS_Edureka_SearchCourses_03</t>
-  </si>
-  <si>
     <t>To validate form submission with invalid email Id.</t>
   </si>
   <si>
@@ -573,13 +507,7 @@
     <t>To validate form submission with missing phonr number.</t>
   </si>
   <si>
-    <t>TC_Edureka_SearchCouses_013</t>
-  </si>
-  <si>
     <t>To validate form submission with valid data.</t>
-  </si>
-  <si>
-    <t>TC_Edureka_SearchCouses_014</t>
   </si>
   <si>
     <t>manu@gmail.com
@@ -610,9 +538,6 @@
     <t>Curriculum is visibled</t>
   </si>
   <si>
-    <t>TC_Edureka_SearchCouses_015</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
@@ -640,44 +565,146 @@
     <t>AWS Masters Program Page</t>
   </si>
   <si>
-    <t>No error message for invalid email filed</t>
-  </si>
-  <si>
     <t>abc@gmail.com</t>
   </si>
   <si>
-    <t>BR_Edureka_Search</t>
-  </si>
-  <si>
-    <t>DF_Edureka_Search_01</t>
-  </si>
-  <si>
     <t>Error message is not displayed</t>
   </si>
   <si>
-    <t>TR_Edureka_Search_01</t>
-  </si>
-  <si>
-    <t>TR_Edureka_Search_02</t>
-  </si>
-  <si>
-    <t>TS_Edureka_SearchCouses_02</t>
-  </si>
-  <si>
-    <t>TR_Edureka_Search_03</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>Edureka</t>
+  </si>
+  <si>
+    <t>TS_Edureka_SearchCouse_03</t>
+  </si>
+  <si>
+    <t>TS_Edureka_SearchCourse_02</t>
+  </si>
+  <si>
+    <t>REQ_Edureka_SearchCourse_01</t>
+  </si>
+  <si>
+    <t>REQ_Edureka_SearchCourse_02</t>
+  </si>
+  <si>
+    <t>REQ_Edureka_SearchCourse_03</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCouse_11</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCouse_12</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCouse_13</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCouse_14</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCouse_15</t>
+  </si>
+  <si>
+    <t>TS_Edureka_SearchCourse_03</t>
+  </si>
+  <si>
+    <t>TS_Edureka_SearchCouse_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should navigate to all the courses available page of "aws" </t>
+  </si>
+  <si>
+    <t>"AWS Architect" related courses should only be displayed</t>
+  </si>
+  <si>
+    <t>"AWS Architect" related courses are only displayed</t>
+  </si>
+  <si>
+    <t>No error message for invalid email filled</t>
+  </si>
+  <si>
+    <t>DF_Edureka_SearchCourse_01</t>
+  </si>
+  <si>
+    <t>TS_Edureka_SearchCourse_01</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_01</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_02</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_03</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_04</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_05</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_06</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_07</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_08</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_09</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_10</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_11</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_12</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_13</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_14</t>
+  </si>
+  <si>
+    <t>TC_Edureka_SearchCourse_15</t>
+  </si>
+  <si>
+    <t>TR_Edureka_SearchCourse_01</t>
+  </si>
+  <si>
+    <t>TR_Edureka_SearchCourse_02</t>
+  </si>
+  <si>
+    <t>TR_Edureka_SearchCourse_03</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>BR_Edureka_SearchCourse_01</t>
+  </si>
+  <si>
+    <t>BR_Edureka_SearchCourse_02</t>
+  </si>
+  <si>
+    <t>BR_Edureka_SearchCourse_03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,14 +724,6 @@
       <sz val="10"/>
       <name val="Candara"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -744,25 +763,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF993366"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -778,13 +798,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,35 +909,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -906,41 +944,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{5E0FD705-F48B-4F8C-B3C1-816D48956841}"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -953,6 +1018,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1274,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8BE93E-24D2-416D-B2B7-177032395FDD}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1286,33 +1355,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="29">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="20" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1320,10 +1389,10 @@
       <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1331,190 +1400,190 @@
       <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>189</v>
+      <c r="C5" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>176</v>
+      <c r="B8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>176</v>
+      <c r="B9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>190</v>
+      <c r="B10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>176</v>
+      <c r="B11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>190</v>
+      <c r="B12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>176</v>
+      <c r="C15" s="20" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>176</v>
+      <c r="C16" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>176</v>
+      <c r="C17" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>176</v>
+      <c r="C18" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>176</v>
+      <c r="C19" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>190</v>
+      <c r="C20" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>176</v>
+      <c r="C22" s="20" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>190</v>
+      <c r="C23" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>190</v>
+      <c r="C24" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>190</v>
+      <c r="C25" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1597,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1541,88 +1610,88 @@
     <col min="6" max="6" width="48.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="29">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="58">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="101.5">
+      <c r="A3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E3" s="7">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="58">
+      <c r="A4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="7">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="101.5">
-      <c r="A3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="10">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="58">
-      <c r="A4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="10">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>164</v>
+      <c r="F4" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="E5" s="9"/>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1633,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAF54C0-124A-41B5-9B7C-CC2F5737CF43}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1651,508 +1720,554 @@
     <col min="10" max="10" width="18.26953125" customWidth="1"/>
     <col min="11" max="11" width="17.36328125" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" customWidth="1"/>
+    <col min="13" max="13" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="65">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="29">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="M2" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="43.5">
+      <c r="A3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="58">
+      <c r="A4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="43.5">
+      <c r="A5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="58">
+      <c r="A7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="29">
+      <c r="A8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="29">
+      <c r="A9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="29">
+      <c r="A10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="43.5">
-      <c r="A3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="I10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="58">
+      <c r="A11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="29">
+      <c r="A12" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="72.5">
+      <c r="A13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" ht="43.5">
+      <c r="A15" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="58">
-      <c r="A4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="58">
+      <c r="A16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="43.5">
-      <c r="A5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" ht="43.5">
-      <c r="A7" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="29">
-      <c r="A8" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="29">
-      <c r="A9" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="29">
-      <c r="A10" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="29">
-      <c r="A11" s="10" t="s">
+      <c r="G16" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="H16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="58">
+      <c r="A17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="29">
-      <c r="A12" s="10" t="s">
+      <c r="E17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="29">
+      <c r="A18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="72.5">
-      <c r="A13" s="10" t="s">
+      <c r="E18" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="F18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" ht="43.5">
-      <c r="A15" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="58">
-      <c r="A16" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="58">
-      <c r="A17" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="29">
-      <c r="A18" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>91</v>
+      <c r="I18" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F17" r:id="rId1" xr:uid="{F214FF88-4A63-48F3-9391-8B7F77BB353D}"/>
     <hyperlink ref="F15" r:id="rId2" xr:uid="{7B69940A-D4B9-4999-BA72-7FB6C4611097}"/>
@@ -2166,13 +2281,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
     <col min="3" max="3" width="17.6328125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="15.1796875" customWidth="1"/>
@@ -2180,43 +2295,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29">
-      <c r="A2" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="10" t="s">
+    <row r="2" spans="1:6" ht="43.5">
+      <c r="A2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>177</v>
+      <c r="B2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2232,13 +2347,13 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
     <col min="3" max="3" width="27.453125" customWidth="1"/>
     <col min="4" max="4" width="28.26953125" customWidth="1"/>
     <col min="5" max="5" width="17.6328125" customWidth="1"/>
@@ -2246,251 +2361,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="E6" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="E9" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="F9" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="E10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>116</v>
+      <c r="E11" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>116</v>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>183</v>
+      <c r="A13" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>116</v>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>116</v>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>116</v>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2511,16 +2626,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813647AB-9A01-417F-A5EB-FD5ADCF0C706}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" customWidth="1"/>
     <col min="4" max="4" width="16.7265625" customWidth="1"/>
     <col min="5" max="5" width="17.08984375" customWidth="1"/>
@@ -2531,46 +2646,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="15" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="7">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>15</v>
+      </c>
+      <c r="G3" s="30">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="H3" s="31">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="I3" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Edureka_Search.xlsx
+++ b/Edureka_Search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/aedunuri-manasa_aedunuri-manasa_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{683DCAAA-BA94-4EB2-9155-F96DFA7B56C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32296D39-1B5E-4115-BB21-A203D6D61315}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="13_ncr:1_{683DCAAA-BA94-4EB2-9155-F96DFA7B56C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{556BD923-F6B2-4E77-9B41-06B7BFE99785}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B656ADEA-66E8-4A2D-B586-F6E6E5305E14}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="2" xr2:uid="{B656ADEA-66E8-4A2D-B586-F6E6E5305E14}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Test Cases" sheetId="3" r:id="rId3"/>
     <sheet name="Defect Report" sheetId="4" r:id="rId4"/>
     <sheet name="RTM" sheetId="5" r:id="rId5"/>
-    <sheet name="Summary" sheetId="6" r:id="rId6"/>
+    <sheet name="Test Ececution Summary" sheetId="6" r:id="rId6"/>
+    <sheet name="Summary" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="222">
   <si>
     <t>Issue Type</t>
   </si>
@@ -103,7 +104,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Candara"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Actual Result Iteration 2
 </t>
@@ -114,7 +115,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Candara"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(to be updated only if test case failed in Iteration 1) </t>
     </r>
@@ -125,7 +126,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Candara"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Status
  Iteration 2
@@ -137,7 +138,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Candara"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(to be updated only if test case failed in Iteration 1)</t>
     </r>
@@ -326,12 +327,6 @@
     <t>Verify Download Form Functionality</t>
   </si>
   <si>
-    <t xml:space="preserve"> To validate the Search Course search bar</t>
-  </si>
-  <si>
-    <t>Click on Search course bar</t>
-  </si>
-  <si>
     <t>It should go to the search page</t>
   </si>
   <si>
@@ -341,9 +336,6 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>To validate searching courses with valid keywords.</t>
-  </si>
-  <si>
     <t>Big Data</t>
   </si>
   <si>
@@ -353,15 +345,6 @@
     <t>It is displaying all the courses of Big Data</t>
   </si>
   <si>
-    <t>To validate searching courses with partial keywords.</t>
-  </si>
-  <si>
-    <t>Enter the valid course names</t>
-  </si>
-  <si>
-    <t>Enter the course name partially</t>
-  </si>
-  <si>
     <t>Dev</t>
   </si>
   <si>
@@ -371,12 +354,6 @@
     <t>It is displaying all the courses containig the key "Dev"</t>
   </si>
   <si>
-    <t>To validate searching courses with invalid keywords.</t>
-  </si>
-  <si>
-    <t>Enter invalid course name</t>
-  </si>
-  <si>
     <t>Manasa</t>
   </si>
   <si>
@@ -386,39 +363,21 @@
     <t>It is displaying error message</t>
   </si>
   <si>
-    <t>To validate the aws link.</t>
-  </si>
-  <si>
-    <t>Click on "aws" link</t>
-  </si>
-  <si>
     <t>It is navigated to the aws courses page</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>To validate visibility of filters.</t>
-  </si>
-  <si>
     <t>Edureka application is displayed on screen.</t>
   </si>
   <si>
-    <t>Click on "Job Role" filter</t>
-  </si>
-  <si>
     <t>It should display some filters</t>
   </si>
   <si>
     <t>It is displaying available filters</t>
   </si>
   <si>
-    <t>To validate searching with valid filters.</t>
-  </si>
-  <si>
-    <t>Enter valid filter</t>
-  </si>
-  <si>
     <t>Cloud Admin</t>
   </si>
   <si>
@@ -428,12 +387,6 @@
     <t>It should display "Cloud Admin"</t>
   </si>
   <si>
-    <t>To validate searching with invalid filters.</t>
-  </si>
-  <si>
-    <t>Enter invalid filter</t>
-  </si>
-  <si>
     <t>Cloud Computing</t>
   </si>
   <si>
@@ -443,35 +396,16 @@
     <t>It is not displaying anything</t>
   </si>
   <si>
-    <t>To validate selecting the filters.</t>
-  </si>
-  <si>
-    <t>Click on "AWS Architect"</t>
-  </si>
-  <si>
-    <t>To validate the AWS Masters Program course.</t>
-  </si>
-  <si>
-    <t>Click on "AWS Master Program" course</t>
-  </si>
-  <si>
     <t>It should navigate to the details page</t>
   </si>
   <si>
     <t>It is navigating to the details page</t>
   </si>
   <si>
-    <t>To validate Download Curriculum button.</t>
-  </si>
-  <si>
     <t>Download curriculum form should be visible</t>
   </si>
   <si>
     <t>Download curriculum form is displayed</t>
-  </si>
-  <si>
-    <t>1. Scroll up to see AWS Masters Course Syllabus.
-2. Click ok Download Curriculum button</t>
   </si>
   <si>
     <t>1. To validate the aws link.
@@ -483,9 +417,6 @@
 7. To validate Download Curriculum button.</t>
   </si>
   <si>
-    <t>To validate form submission with invalid email Id.</t>
-  </si>
-  <si>
     <t>Navigated to the search page.</t>
   </si>
   <si>
@@ -502,12 +433,6 @@
   </si>
   <si>
     <t>Error message is displayed</t>
-  </si>
-  <si>
-    <t>To validate form submission with missing phonr number.</t>
-  </si>
-  <si>
-    <t>To validate form submission with valid data.</t>
   </si>
   <si>
     <t>manu@gmail.com
@@ -526,12 +451,6 @@
     <t>Acknowledgement is appeared</t>
   </si>
   <si>
-    <t>To validate visibility of Curriculum.</t>
-  </si>
-  <si>
-    <t>Click on Skip and Continue Download</t>
-  </si>
-  <si>
     <t>Curriculum should be visibled</t>
   </si>
   <si>
@@ -541,18 +460,6 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>1. Enter valid email and phone number.
-2. Click on Start Download</t>
-  </si>
-  <si>
-    <t>1. Don’t enter phone number.
-2. Click on Start Download button.</t>
-  </si>
-  <si>
-    <t>1. Enter invalid email Id
-2. Click on Start. Download button.</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -698,13 +605,251 @@
   </si>
   <si>
     <t>BR_Edureka_SearchCourse_03</t>
+  </si>
+  <si>
+    <t>User Story ID</t>
+  </si>
+  <si>
+    <t>US_Edureka_SearchCourse_01</t>
+  </si>
+  <si>
+    <t>US_Edureka_SearchCourse_02</t>
+  </si>
+  <si>
+    <t>US_Edureka_SearchCourse_03</t>
+  </si>
+  <si>
+    <t>US_Edureka_SearchCourse_04</t>
+  </si>
+  <si>
+    <t>Test when a course name is entered in the search bar and relevant courses matching the name are displayed.
+Given: User is on the Edureka homepage or course search section.
+When: User enters a course name in the search bar.
+Then: Relevant courses matching the entered name are displayed.</t>
+  </si>
+  <si>
+    <t>Test whether the filter options are visible to the user on the course search results page.
+Given: User is on the Edureka course search results page.
+When: The page loads after a course search is performed.
+Then: Filter options (e.g., category, level, price) are visible and accessible to the user.</t>
+  </si>
+  <si>
+    <t>Test whether the user is able to select and apply filters from the available options.
+Given: User is on the Edureka course search results page.
+When: User clicks on one or more filter options (e.g., category, level, price).
+Then: The selected filters are applied, and the course results update accordingly.</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>Test when a valid keyword is entered in the course search bar and relevant courses matching the keyword are displayed.
+Given: User is on search page.
+When: User enters a valid keyword in the search bar.
+Then: Relevant courses matching the entered keyword are displayed.</t>
+  </si>
+  <si>
+    <t>Test when a partial keyword is entered in the course search bar and relevant courses containing the partial keyword are displayed.
+Given: User is on search page.
+When: User enters a partial keyword in the search bar.
+Then: Courses containing or matching the partial keyword are displayed.</t>
+  </si>
+  <si>
+    <t>Test when an invalid keyword is entered in the course search bar and no matching courses are displayed.
+Given: User is on search page.
+When: User enters an invalid or unrelated keyword in the search bar.
+Then: A message indicating no matching courses found is displayed, or the search results are empty.</t>
+  </si>
+  <si>
+    <t>Test whether the AWS course link navigates correctly to the intended course page.
+Given: User is on search page.
+When: User clicks on the AWS course link.
+Then: User is redirected to the AWS course details page successfully.</t>
+  </si>
+  <si>
+    <t>Test when valid filters are applied and relevant courses matching the selected filter criteria are displayed.
+Given: User is on the AWS courses page.
+When: User selects valid filters such as category, level, or price.
+Then: Courses matching the selected filter criteria are displayed correctly.</t>
+  </si>
+  <si>
+    <t>Test when invalid or conflicting filters are applied and no relevant courses are displayed.
+Given: User is on the AWS courses page.
+When: User selects filters that do not match any available course (e.g., incompatible category and level).
+Then: A message indicating no matching courses found is displayed, or the search results are empty.</t>
+  </si>
+  <si>
+    <t>Test whether the AWS Masters Program course page loads correctly and displays complete course details.
+Given: User is on the AWS courses page.
+When: User clicks on the AWS Masters Program course link.
+Then: The AWS Masters Program course page is displayed with details including curriculum, projects, certifications, and career outcomes.</t>
+  </si>
+  <si>
+    <t>Test whether the "Download Curriculum" button functions correctly and allows the user to download the course curriculum.
+Given: User is on the AWS Matser Program details page.
+When: User clicks on the "Download Curriculum" button.
+Then: The curriculum PDF or document is downloaded successfully to the user's device.</t>
+  </si>
+  <si>
+    <t>Test whether the form correctly handles submission with an invalid email ID.
+Given: User is on Download Curriculum form.
+When: User enters an invalid email format (e.g., missing '@' or domain) and submits the form.
+Then: An error message is displayed indicating the email is invalid, and the form is not submitted.</t>
+  </si>
+  <si>
+    <t>Test whether the form correctly handles submission when the phone number field is left empty.
+Given: User is on Download Curriculum form.
+When: User submits the form without entering a phone number.
+Then: An error message is displayed indicating that the phone number is required, and the form is not submitted.</t>
+  </si>
+  <si>
+    <t>Test whether the form is successfully submitted when all required fields are filled with valid data.
+Given: User is on Download Curriculum form.
+When: User enters valid information in all mandatory fields including name, email, and phone number, and submits the form.
+Then: The form is submitted successfully, and a confirmation message or follow-up action (e.g., thank you message or redirect) is displayed.</t>
+  </si>
+  <si>
+    <t>Test whether the curriculum section is visible on the AWS Masters Program course page.
+Given: User is on Acknowlegment page.
+When: The page loads completely.
+Then: The curriculum section is visible and displays the course modules or topics clearly.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Edureka homepage or course search section.
+2. Click on the "Search Course" bar.</t>
+  </si>
+  <si>
+    <t>1.  Navigate to the Edureka search page
+2. Click on the "Search Course" bar.
+3. Enter a valid course name in the search bar.
+4. Relevant courses matching the entered name are displayed.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Edureka search page.
+2. Click on the "Search Course" bar.
+3. Enter a partial course name (e.g., "Data", "AWS", "Dev") in the search bar.
+4. Courses containing or matching the partial keyword are displayed.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Edureka search page.
+2. Click on the "Search Course" bar.
+3. Enter an invalid or unrelated course name (e.g., "xyz123", "abc@!").
+4. A message indicating no matching courses found is displayed.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Edureka search page.
+2. Locate the "AWS" course link under the featured or popular courses.
+3. Click on the "AWS" course link.
+4. User is redirected to the AWS course details page.</t>
+  </si>
+  <si>
+    <t>1. Navigate to AWS courses page.
+2. Select an invalid or conflicting filter combination that does not match any available course.
+3. Nothing should be displayed.</t>
+  </si>
+  <si>
+    <t>1. Navigate to AWS courses page.
+2. Select a valid filter option from the available choices.
+3. Courses matching the selected filter criteria are displayed.</t>
+  </si>
+  <si>
+    <t>1. Navigate to AWS courses page.
+2. Click on the "Job Role" filter dropdown or checkbox.
+3. Some job role options will be dispalyed.</t>
+  </si>
+  <si>
+    <t>1. Navigate to AWS courses page.
+2. Click on the "AWS Architect" course link.
+3. User is redirected to the AWS Architect course details page.</t>
+  </si>
+  <si>
+    <t>1. Navigate to AWS courses page.
+2. Click on the "AWS Master Program" course link.
+3. User is redirected to the AWS Master Program course details page.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the AWS Masters Program course page on Edureka.
+2. Scroll up to see AWS Masters Course Syllabus.
+3. Click on the "Download Curriculum" button.
+4. Download Curriculum form is displayed.</t>
+  </si>
+  <si>
+    <t>1. Download Curriculum form should be displayed.
+2. Enter an invalid email ID (e.g., missing '@' or domain) in the email field.
+3. Click on the "Start Download" button.
+4. An error message is displayed indicating the email format is invalid, and the curriculum is not downloaded.</t>
+  </si>
+  <si>
+    <t>1. Download Curriculum form should be displayed.
+2. Leave the phone number field empty.
+3. Click on the "Start Download" button.
+4. An error message is displayed indicating that the phone number is required, and the curriculum is not downloaded.</t>
+  </si>
+  <si>
+    <t>1. Download Curriculum form should be displayed.
+2. Enter a valid email ID and phone number in the respective fields.
+3. Click on the "Start Download" button.
+4. It should display Acknowlegment.</t>
+  </si>
+  <si>
+    <t>1. Acknowlwgment should be displayed.
+2. Click on Skip and Continue Download.
+3. Curriculum should be downloaded successfully and visible.</t>
+  </si>
+  <si>
+    <t>Post Condition</t>
+  </si>
+  <si>
+    <t>Search results page shows courses matching the valid keyword.</t>
+  </si>
+  <si>
+    <t>User is on the search results page.</t>
+  </si>
+  <si>
+    <t>Search results page shows courses containing the partial keyword.</t>
+  </si>
+  <si>
+    <t>Error message displayed; no courses shown.</t>
+  </si>
+  <si>
+    <t>AWS course details page is loaded.</t>
+  </si>
+  <si>
+    <t>Filter options are visible and ready for interaction.</t>
+  </si>
+  <si>
+    <t>Filtered course list is displayed.</t>
+  </si>
+  <si>
+    <t>No courses displayed; error or empty result message shown.</t>
+  </si>
+  <si>
+    <t>Filtered results for AWS Architect are displayed.</t>
+  </si>
+  <si>
+    <t>AWS Masters Program course details page is loaded.</t>
+  </si>
+  <si>
+    <t>Curriculum download form is visible.</t>
+  </si>
+  <si>
+    <t>Form remains on screen with error message for invalid email.</t>
+  </si>
+  <si>
+    <t>Form remains on screen with error message for missing phone number.</t>
+  </si>
+  <si>
+    <t>Acknowledgement message is displayed.</t>
+  </si>
+  <si>
+    <t>Curriculum section is ready to download and curriculum visible.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,28 +861,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Candara"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Candara"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Candara"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -775,6 +920,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Candara"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -915,7 +1074,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -961,7 +1120,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -985,20 +1143,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1341,252 +1508,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8BE93E-24D2-416D-B2B7-177032395FDD}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.90625" customWidth="1"/>
-    <col min="2" max="2" width="79.36328125" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="79.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" ht="29">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="E4" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="18" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="E7" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="E8" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="E9" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="18" t="s">
+      <c r="E11" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="E14" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="E15" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="E16" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="E17" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="18" t="s">
+      <c r="E19" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="E21" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="E22" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="E23" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>158</v>
+      <c r="E24" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B14:B19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1597,10 +1828,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.453125" customWidth="1"/>
     <col min="2" max="2" width="28.1796875" customWidth="1"/>
@@ -1610,32 +1841,32 @@
     <col min="6" max="6" width="48.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="58">
+    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>71</v>
@@ -1650,12 +1881,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="101.5">
+    <row r="3" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>78</v>
@@ -1667,15 +1898,15 @@
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="58">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>79</v>
@@ -1687,10 +1918,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E5" s="6"/>
     </row>
   </sheetData>
@@ -1700,30 +1931,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAF54C0-124A-41B5-9B7C-CC2F5737CF43}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="C17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.7265625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20.90625" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+    <col min="4" max="4" width="34.54296875" customWidth="1"/>
     <col min="5" max="5" width="20.26953125" customWidth="1"/>
     <col min="6" max="6" width="17.26953125" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="18.26953125" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="28.453125" customWidth="1"/>
+    <col min="7" max="9" width="18.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" customWidth="1"/>
+    <col min="13" max="13" width="17.36328125" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="65">
+    <row r="1" spans="1:15" ht="65" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1745,154 +1976,184 @@
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29">
+    <row r="2" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="K2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="O2" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="G3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="43.5">
-      <c r="A3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="K3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="58">
-      <c r="A4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="43.5">
-      <c r="A5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="K5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
@@ -1901,233 +2162,277 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="58">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="145" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="116" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="145" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="H10" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="145" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="145" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="29">
-      <c r="A8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="H12" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="K12" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="29">
-      <c r="A9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="29">
-      <c r="A10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="58">
-      <c r="A11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="29">
-      <c r="A12" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="72.5">
-      <c r="A13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="K13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5"/>
@@ -2136,134 +2441,160 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:13" ht="43.5">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:15" ht="203" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="58">
+    </row>
+    <row r="16" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="58">
+    </row>
+    <row r="17" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="10" t="s">
+    </row>
+    <row r="18" spans="1:15" ht="116" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="29">
-      <c r="A18" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="B18" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>164</v>
+        <v>221</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2281,10 +2612,10 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.54296875" customWidth="1"/>
     <col min="2" max="2" width="23.453125" customWidth="1"/>
@@ -2294,7 +2625,7 @@
     <col min="6" max="6" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -2314,24 +2645,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.5">
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2347,10 +2678,10 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="25.1796875" customWidth="1"/>
@@ -2360,7 +2691,7 @@
     <col min="6" max="6" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>28</v>
       </c>
@@ -2380,232 +2711,232 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>177</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>147</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>84</v>
+        <v>148</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>84</v>
+        <v>149</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>84</v>
+        <v>150</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>84</v>
+        <v>151</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>84</v>
+      <c r="E15" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>84</v>
+        <v>162</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2960,10 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.90625" customWidth="1"/>
     <col min="2" max="2" width="20.08984375" customWidth="1"/>
@@ -2645,20 +2976,20 @@
     <col min="9" max="9" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.7">
+      <c r="A1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
@@ -2687,12 +3018,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="26" t="s">
-        <v>159</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="C3" s="7">
         <v>15</v>
@@ -2706,17 +3037,17 @@
       <c r="F3" s="7">
         <v>15</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="26">
         <v>0.93330000000000002</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="27">
         <v>6.6699999999999995E-2</v>
       </c>
       <c r="I3" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2726,7 +3057,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
     </row>
   </sheetData>
@@ -2735,4 +3066,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D460CEF7-93A3-4D35-8BBE-D44F347323E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Edureka_Search.xlsx
+++ b/Edureka_Search.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/aedunuri-manasa_aedunuri-manasa_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="13_ncr:1_{683DCAAA-BA94-4EB2-9155-F96DFA7B56C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{556BD923-F6B2-4E77-9B41-06B7BFE99785}"/>
+  <xr:revisionPtr revIDLastSave="842" documentId="13_ncr:1_{683DCAAA-BA94-4EB2-9155-F96DFA7B56C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC146403-E51E-4914-A250-F4DC2417D4F2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="2" xr2:uid="{B656ADEA-66E8-4A2D-B586-F6E6E5305E14}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="4" activeTab="7" xr2:uid="{B656ADEA-66E8-4A2D-B586-F6E6E5305E14}"/>
   </bookViews>
   <sheets>
-    <sheet name="User Story" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
-    <sheet name="Test Cases" sheetId="3" r:id="rId3"/>
-    <sheet name="Defect Report" sheetId="4" r:id="rId4"/>
-    <sheet name="RTM" sheetId="5" r:id="rId5"/>
-    <sheet name="Test Ececution Summary" sheetId="6" r:id="rId6"/>
-    <sheet name="Summary" sheetId="7" r:id="rId7"/>
+    <sheet name="participants_modules" sheetId="7" r:id="rId1"/>
+    <sheet name="User Story" sheetId="1" r:id="rId2"/>
+    <sheet name="Test Scenario" sheetId="2" r:id="rId3"/>
+    <sheet name="Test Cases" sheetId="3" r:id="rId4"/>
+    <sheet name="Defect Report" sheetId="4" r:id="rId5"/>
+    <sheet name="RTM" sheetId="5" r:id="rId6"/>
+    <sheet name="Test Ececution Summary" sheetId="6" r:id="rId7"/>
+    <sheet name="Summary Report to Stakeholders" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="307">
   <si>
     <t>Issue Type</t>
   </si>
@@ -99,51 +100,6 @@
  Iteration 1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Actual Result Iteration 2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(to be updated only if test case failed in Iteration 1) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Status
- Iteration 2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>(to be updated only if test case failed in Iteration 1)</t>
-    </r>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -153,15 +109,6 @@
     <t>Defect Id.</t>
   </si>
   <si>
-    <t>Module name</t>
-  </si>
-  <si>
-    <t>Defect Summary</t>
-  </si>
-  <si>
-    <t>Defect Priority</t>
-  </si>
-  <si>
     <t>Assigned To</t>
   </si>
   <si>
@@ -217,9 +164,6 @@
   </si>
   <si>
     <t>Epic</t>
-  </si>
-  <si>
-    <t>Search Functionality</t>
   </si>
   <si>
     <t>Story 1</t>
@@ -469,12 +413,6 @@
     <t>manu@bsdhgu.com</t>
   </si>
   <si>
-    <t>AWS Masters Program Page</t>
-  </si>
-  <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
     <t>Error message is not displayed</t>
   </si>
   <si>
@@ -586,25 +524,7 @@
     <t>TC_Edureka_SearchCourse_15</t>
   </si>
   <si>
-    <t>TR_Edureka_SearchCourse_01</t>
-  </si>
-  <si>
-    <t>TR_Edureka_SearchCourse_02</t>
-  </si>
-  <si>
-    <t>TR_Edureka_SearchCourse_03</t>
-  </si>
-  <si>
     <t>Search</t>
-  </si>
-  <si>
-    <t>BR_Edureka_SearchCourse_01</t>
-  </si>
-  <si>
-    <t>BR_Edureka_SearchCourse_02</t>
-  </si>
-  <si>
-    <t>BR_Edureka_SearchCourse_03</t>
   </si>
   <si>
     <t>User Story ID</t>
@@ -843,13 +763,328 @@
   </si>
   <si>
     <t>Curriculum section is ready to download and curriculum visible.</t>
+  </si>
+  <si>
+    <t>All the test steps were successfully executed, and the expected results were achieved.</t>
+  </si>
+  <si>
+    <t>All the test steps aren't executed, expected result and actual result are not matched.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Build Version</t>
+  </si>
+  <si>
+    <t>The system fails to validate email format in the Download Curriculum form. When an invalid email is entered, the form does not display an error message and allows submission attempt.</t>
+  </si>
+  <si>
+    <t>Search Module (v1.0)</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>1. Navigate to AWS Masters Program course page.
+2. Click on Download Curriculum.
+3. Enter invalid email (e.g., manu@bsdhgu.com).
+4. Click Start Download.</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>The system should display an error message for invalid email and prevent submission.</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>No error message is displayed; form behaves as if valid input was provided.</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Reported On</t>
+  </si>
+  <si>
+    <t>Aedunuri Manasa</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Various browers like edge,chrome, Windows 11</t>
+  </si>
+  <si>
+    <t>Batch:</t>
+  </si>
+  <si>
+    <t>Sprint Date:</t>
+  </si>
+  <si>
+    <t>Application Under Test:</t>
+  </si>
+  <si>
+    <t>6th November 2025 - 18th November 2025</t>
+  </si>
+  <si>
+    <t>V &amp; V Automation Testing Bangalore August 2025</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Associates Name</t>
+  </si>
+  <si>
+    <t>Module undet test</t>
+  </si>
+  <si>
+    <t>Group Leader:</t>
+  </si>
+  <si>
+    <t>Test Summary Report format</t>
+  </si>
+  <si>
+    <t>1.Test Objective:</t>
+  </si>
+  <si>
+    <r>
+      <t>2.Application Overview :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>3.Testing Scope:</t>
+  </si>
+  <si>
+    <t>In-Scope:</t>
+  </si>
+  <si>
+    <t>Testing for the following are in scope:</t>
+  </si>
+  <si>
+    <t>Out of Scope:</t>
+  </si>
+  <si>
+    <t>Areas not covered:</t>
+  </si>
+  <si>
+    <t>Following areas are not covered:</t>
+  </si>
+  <si>
+    <t>4.Test Metrices:</t>
+  </si>
+  <si>
+    <t>Total number of test cases planned:</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Executed:</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Passed:</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Failed:</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Planned</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Executed</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Passed</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Failed</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Graphical representation:</t>
+  </si>
+  <si>
+    <t>Requirement Traceability Matrix</t>
+  </si>
+  <si>
+    <t>Defect_Id</t>
+  </si>
+  <si>
+    <t>5.Types of testing performed</t>
+  </si>
+  <si>
+    <t>Functionality Testing</t>
+  </si>
+  <si>
+    <t>6.Test Environment and Tools Used:</t>
+  </si>
+  <si>
+    <t>Application URL</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Tools Used</t>
+  </si>
+  <si>
+    <t>8.Exit Criteria:</t>
+  </si>
+  <si>
+    <t>9.Sign Off:</t>
+  </si>
+  <si>
+    <t>This document captures the activities performed as part of testing the Edureka Search Module, which includes course search, popular courses navigation, and curriculum download functionality.</t>
+  </si>
+  <si>
+    <t>The Edureka platform allows learners to search for courses using keywords, explore popular courses and categories, and download course curriculum. The module tested ensures smooth navigation, accurate search results, and proper form validation for curriculum downloads.</t>
+  </si>
+  <si>
+    <t>1. Search functionality (valid, partial, invalid keywords)</t>
+  </si>
+  <si>
+    <t>2. Popular courses navigation and filters</t>
+  </si>
+  <si>
+    <t>3. Curriculum download form validation</t>
+  </si>
+  <si>
+    <t>1. Payment gateway</t>
+  </si>
+  <si>
+    <t>2. Enrollment process</t>
+  </si>
+  <si>
+    <t>3. Video streaming quality</t>
+  </si>
+  <si>
+    <t>1. Mobile responsiveness</t>
+  </si>
+  <si>
+    <t>2. Performance testing</t>
+  </si>
+  <si>
+    <t>3. Security testing</t>
+  </si>
+  <si>
+    <t>https://www.edureka.co</t>
+  </si>
+  <si>
+    <t>• Implement proper validation for email format in curriculum download form.
+• Enhance error messages for invalid inputs for better user experience.
+• Consider adding auto-suggestions in search bar for improved usability.</t>
+  </si>
+  <si>
+    <t>7. Recommendations &amp; Suggestions</t>
+  </si>
+  <si>
+    <t>• All planned test cases executed.</t>
+  </si>
+  <si>
+    <t>• No critical defects impacting core functionality.</t>
+  </si>
+  <si>
+    <t>• All defects documented with clear steps to reproduce.</t>
+  </si>
+  <si>
+    <t>Considering the low severity of the single defect and successful execution of all planned test cases, the testing team recommends proceeding with the release of the Search Module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional testing is a type of software testing that verifies that a system or application functions correctly according to its specifications or requirements. This type of testing focuses on testing the functionality of the software and ensuring that it behaves as expected from the end user's perspective.				</t>
+  </si>
+  <si>
+    <t>Positive Testing</t>
+  </si>
+  <si>
+    <t>Positive testing is a type of software testing that verifies the system behaves as expected when given valid and expected input.</t>
+  </si>
+  <si>
+    <t>Negative Testing</t>
+  </si>
+  <si>
+    <t>Negative testing is a type of software testing that checks how the system handles invalid, unexpected, or incorrect input.</t>
+  </si>
+  <si>
+    <t>BR_Edureka_SearchCourse_02</t>
+  </si>
+  <si>
+    <t>TR_Edureka_SearchCourse_02</t>
+  </si>
+  <si>
+    <t>MS Excel</t>
+  </si>
+  <si>
+    <t>Katikireddy Shirisha</t>
+  </si>
+  <si>
+    <t>Careers</t>
+  </si>
+  <si>
+    <t>BR_Edureka_Careers_01</t>
+  </si>
+  <si>
+    <t>BR_Edureka_Careers_02</t>
+  </si>
+  <si>
+    <t>BR_Edureka_Careers_03</t>
+  </si>
+  <si>
+    <t>BR_Edureka_Careers_04</t>
+  </si>
+  <si>
+    <t>BR_Edureka_Careers_05</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Discover_Top_Categories</t>
+  </si>
+  <si>
+    <t>Trending_Courses</t>
+  </si>
+  <si>
+    <t>Serach</t>
+  </si>
+  <si>
+    <t>Baisegowni Reddy Tejasree</t>
+  </si>
+  <si>
+    <t>Precharla Divya Sai</t>
+  </si>
+  <si>
+    <t>Murarishetty Vyshnavi</t>
+  </si>
+  <si>
+    <t>Epic_01
+Search Functionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,13 +1109,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Candara"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
       <name val="Candara"/>
       <family val="2"/>
     </font>
@@ -935,8 +1163,115 @@
       <name val="Candara"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,8 +1326,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1067,14 +1432,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1103,24 +1569,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1130,7 +1595,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1149,14 +1614,123 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1164,8 +1738,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1185,6 +1874,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2413000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5224F3BB-9789-3122-BE53-2C8F658CCE4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3619500" y="7302500"/>
+          <a:ext cx="6851650" cy="2546350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1507,11 +2262,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D460CEF7-93A3-4D35-8BBE-D44F347323E3}">
+  <dimension ref="B1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="40.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="37">
+        <v>1</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="115" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="37">
+        <v>2</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="37">
+        <v>3</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="115" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="37">
+        <v>4</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="116" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="115" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="37">
+        <v>5</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="115" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8BE93E-24D2-416D-B2B7-177032395FDD}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B19"/>
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1524,290 +2416,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="104" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="D4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="E4" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="19" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="75"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="75"/>
+      <c r="B7" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="75"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="75"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="75"/>
+      <c r="B14" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" t="s">
+      <c r="E15" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" t="s">
+      <c r="D18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" t="s">
+      <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="75"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="75"/>
+      <c r="B21" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="D21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="E21" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="75"/>
+      <c r="B22" s="75"/>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E22" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="75"/>
+      <c r="B23" s="75"/>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1823,7 +2715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9A0239-9F1E-4F7D-987E-D28C91722316}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1842,83 +2734,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E2" s="7">
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E3" s="7">
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4" s="7">
         <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1929,12 +2821,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAF54C0-124A-41B5-9B7C-CC2F5737CF43}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1949,12 +2841,11 @@
     <col min="10" max="10" width="17.1796875" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="18.26953125" customWidth="1"/>
-    <col min="13" max="13" width="17.36328125" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="28.453125" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="65" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1976,11 +2867,11 @@
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>178</v>
+      <c r="H1" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>164</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>16</v>
@@ -1988,172 +2879,181 @@
       <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="N4" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
@@ -2165,274 +3065,296 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="145" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="145" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="145" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="H10" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="116" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="K10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="145" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="145" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="174" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="145" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="H13" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="145" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="145" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="174" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5"/>
@@ -2443,162 +3365,177 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="24"/>
-    </row>
-    <row r="15" spans="1:15" ht="203" x14ac:dyDescent="0.35">
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:14" ht="203" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="K17" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="116" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="H18" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="116" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>134</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F17" r:id="rId1" xr:uid="{F214FF88-4A63-48F3-9391-8B7F77BB353D}"/>
     <hyperlink ref="F15" r:id="rId2" xr:uid="{7B69940A-D4B9-4999-BA72-7FB6C4611097}"/>
@@ -2607,78 +3544,148 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7F8279-6E2C-4575-8A87-0757C31C65C6}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" customWidth="1"/>
+    <col min="1" max="11" width="26.54296875" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" customWidth="1"/>
+    <col min="14" max="14" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="N1" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>124</v>
+        <v>138</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>122</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="32">
+        <v>45971</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{32350584-4567-434B-B24C-32D760139A60}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22686B6-9234-4814-9CD6-FB97CB70E010}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2692,270 +3699,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="7" t="s">
+      <c r="E10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="7" t="s">
+      <c r="E11" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="7" t="s">
+      <c r="E12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="E13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="7" t="s">
+      <c r="E14" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="7" t="s">
+      <c r="E15" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>82</v>
+      <c r="E16" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
+  <mergeCells count="5">
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:B12"/>
     <mergeCell ref="C6:C12"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813647AB-9A01-417F-A5EB-FD5ADCF0C706}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -2977,53 +3972,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
-        <v>129</v>
+      <c r="A3" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C3" s="7">
         <v>15</v>
@@ -3037,13 +4032,13 @@
       <c r="F3" s="7">
         <v>15</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <v>0.93330000000000002</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3068,16 +4063,796 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D460CEF7-93A3-4D35-8BBE-D44F347323E3}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5DAF02-5875-4D44-A45F-32EB2580D968}">
+  <dimension ref="B2:G89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="43.08984375" customWidth="1"/>
+    <col min="3" max="3" width="44.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="53.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="25" x14ac:dyDescent="0.5">
+      <c r="B2" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+    </row>
+    <row r="3" spans="2:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="B3" s="46"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="48"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="2:7" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+    </row>
+    <row r="6" spans="2:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="B6" s="49"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="2:7" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="84"/>
+    </row>
+    <row r="8" spans="2:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="B8" s="50"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="112"/>
+      <c r="C11" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="112"/>
+      <c r="C12" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="112"/>
+      <c r="C13" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="110"/>
+      <c r="C15" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="111"/>
+      <c r="C16" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="113"/>
+      <c r="C18" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="113"/>
+      <c r="C19" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="113"/>
+      <c r="C20" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B22" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B23" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="67">
+        <v>15</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B24" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="67">
+        <v>15</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B25" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="67">
+        <v>14</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B26" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="67">
+        <v>1</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B27" s="40"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="2:7" ht="32" x14ac:dyDescent="0.35">
+      <c r="B28" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="61">
+        <v>15</v>
+      </c>
+      <c r="C29" s="43">
+        <v>15</v>
+      </c>
+      <c r="D29" s="43">
+        <v>14</v>
+      </c>
+      <c r="E29" s="43">
+        <v>1</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="51"/>
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B31" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B32" s="51"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="52"/>
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="52"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="52"/>
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="52"/>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="52"/>
+      <c r="G37" s="47"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="52"/>
+      <c r="G38" s="47"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="52"/>
+      <c r="G39" s="47"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="52"/>
+      <c r="G40" s="47"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="52"/>
+      <c r="G41" s="47"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="52"/>
+      <c r="G42" s="47"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="52"/>
+      <c r="G43" s="47"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="52"/>
+      <c r="G44" s="47"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="52"/>
+      <c r="G45" s="47"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="52"/>
+      <c r="G46" s="47"/>
+    </row>
+    <row r="47" spans="2:7" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="53"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="47"/>
+    </row>
+    <row r="48" spans="2:7" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="53"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="47"/>
+    </row>
+    <row r="49" spans="2:7" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="54"/>
+      <c r="G49" s="47"/>
+    </row>
+    <row r="50" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="55"/>
+      <c r="G50" s="47"/>
+    </row>
+    <row r="51" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B51" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="94"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B53" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="63"/>
+    </row>
+    <row r="54" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B54" s="108"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="63"/>
+    </row>
+    <row r="55" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B55" s="108"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="63"/>
+    </row>
+    <row r="56" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B56" s="108"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="63"/>
+    </row>
+    <row r="57" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B57" s="108"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="63"/>
+    </row>
+    <row r="58" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B58" s="108"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="63"/>
+    </row>
+    <row r="59" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B59" s="108"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="63"/>
+    </row>
+    <row r="60" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B60" s="108"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="63"/>
+    </row>
+    <row r="61" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B61" s="108"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" s="63"/>
+    </row>
+    <row r="62" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="108"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" s="63"/>
+    </row>
+    <row r="63" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B63" s="108"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G63" s="63"/>
+    </row>
+    <row r="64" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B64" s="108"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B65" s="108"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" s="63"/>
+    </row>
+    <row r="66" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B66" s="108"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="63"/>
+    </row>
+    <row r="67" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B67" s="108"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="F67" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G67" s="63"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="52"/>
+      <c r="G68" s="47"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B69" s="52"/>
+      <c r="G69" s="47"/>
+    </row>
+    <row r="70" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B70" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" s="93"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="94"/>
+    </row>
+    <row r="71" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="88"/>
+    </row>
+    <row r="72" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="114" t="s">
+        <v>285</v>
+      </c>
+      <c r="C72" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="D72" s="90"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="90"/>
+      <c r="G72" s="91"/>
+    </row>
+    <row r="73" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="114" t="s">
+        <v>287</v>
+      </c>
+      <c r="C73" s="89" t="s">
+        <v>288</v>
+      </c>
+      <c r="D73" s="90"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="91"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="52"/>
+      <c r="G74" s="47"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="52"/>
+      <c r="G75" s="47"/>
+    </row>
+    <row r="76" spans="2:7" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B76" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76" s="79"/>
+      <c r="G76" s="47"/>
+    </row>
+    <row r="77" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B77" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="G77" s="47"/>
+    </row>
+    <row r="78" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B78" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="G78" s="47"/>
+    </row>
+    <row r="79" spans="2:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="B79" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="G79" s="47"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="52"/>
+      <c r="G80" s="47"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B81" s="52"/>
+      <c r="G81" s="47"/>
+    </row>
+    <row r="82" spans="2:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="B82" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="G82" s="47"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B83" s="52"/>
+      <c r="G83" s="47"/>
+    </row>
+    <row r="84" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" t="s">
+        <v>280</v>
+      </c>
+      <c r="D84" s="73"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="74"/>
+    </row>
+    <row r="85" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="85"/>
+      <c r="C85" t="s">
+        <v>281</v>
+      </c>
+      <c r="D85" s="73"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="74"/>
+    </row>
+    <row r="86" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="85"/>
+      <c r="C86" t="s">
+        <v>282</v>
+      </c>
+      <c r="D86" s="73"/>
+      <c r="E86" s="73"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="74"/>
+    </row>
+    <row r="87" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B87" s="51"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="66"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B88" s="52"/>
+      <c r="G88" s="47"/>
+    </row>
+    <row r="89" spans="2:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="D89" s="83"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B53:B67"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C53:C67"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="D62:D67"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C77" r:id="rId1" xr:uid="{62253971-A9A1-46B9-B8E7-9397D7BDF5D4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>